--- a/dataset/health_first_dataset.xlsx
+++ b/dataset/health_first_dataset.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Sem 5\DBMS\final project\Healthcare-Dashboard\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E7EDD-E9A4-44B4-8C64-CCF8E06E7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D7048-17B2-4514-9351-093C8853F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{A457061F-8648-4C6A-A281-A8FC2E82F7A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="1" activeTab="4" xr2:uid="{A457061F-8648-4C6A-A281-A8FC2E82F7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
     <sheet name="Doctor" sheetId="2" r:id="rId2"/>
-    <sheet name="Patient Medical History" sheetId="3" r:id="rId3"/>
+    <sheet name="Appointments" sheetId="4" r:id="rId3"/>
+    <sheet name="Patient Medical History" sheetId="5" r:id="rId4"/>
+    <sheet name="Patient-Appointment-Doctor" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="328">
   <si>
     <t>patient_id</t>
   </si>
@@ -565,229 +567,463 @@
     <t>001-006</t>
   </si>
   <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Speech Impairment</t>
+  </si>
+  <si>
+    <t>ACE inhibitors</t>
+  </si>
+  <si>
+    <t>Shortness of Breathe</t>
+  </si>
+  <si>
+    <t>Skin Rash</t>
+  </si>
+  <si>
+    <t>anti-inflammatory cream</t>
+  </si>
+  <si>
+    <t>Coughing</t>
+  </si>
+  <si>
+    <t>Chest Pain</t>
+  </si>
+  <si>
+    <t>anti-inflammatory inhalers.</t>
+  </si>
+  <si>
+    <t>Runny Nose</t>
+  </si>
+  <si>
+    <t>Painful Excretion</t>
+  </si>
+  <si>
+    <t>diuretics</t>
+  </si>
+  <si>
+    <t>antipyretics</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Lightheadedness</t>
+  </si>
+  <si>
+    <t>Antihistamines</t>
+  </si>
+  <si>
+    <t>Loss of Smell</t>
+  </si>
+  <si>
+    <t>Nasal decongestants</t>
+  </si>
+  <si>
+    <t>Diziness</t>
+  </si>
+  <si>
+    <t>Bronchodilators</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>Memory Problems</t>
+  </si>
+  <si>
+    <t>Calcium channel blockers</t>
+  </si>
+  <si>
+    <t>Itchiness</t>
+  </si>
+  <si>
+    <t>Twitching</t>
+  </si>
+  <si>
+    <t>methimazole</t>
+  </si>
+  <si>
+    <t>Limited Mobility</t>
+  </si>
+  <si>
+    <t>Calcium and Vitamin D supplements</t>
+  </si>
+  <si>
+    <t>Titled Posture</t>
+  </si>
+  <si>
+    <t>Headaches</t>
+  </si>
+  <si>
+    <t>Weight Loss</t>
+  </si>
+  <si>
+    <t>Beta-blockers</t>
+  </si>
+  <si>
+    <t>Muscle relaxants</t>
+  </si>
+  <si>
+    <t>appointment_id</t>
+  </si>
+  <si>
+    <t>Appointment date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>Diagnose</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>12/20/2024</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>I am having trouble speaking clearly.</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>12/27/2024</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>I feel like I can't catch my breath.</t>
+  </si>
+  <si>
+    <t>[TBA]</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>2/25/2025</t>
+  </si>
+  <si>
+    <t>I have itchy red patches on my skin.</t>
+  </si>
+  <si>
+    <t>Allergic Reaction</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>2/23/2025</t>
+  </si>
+  <si>
+    <t>I have a persistent cough.</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>I have chest pain that won’t go away.</t>
+  </si>
+  <si>
+    <t>GERD</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>My nose keeps running nonstop.</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>1/18/2025</t>
+  </si>
+  <si>
+    <t>It hurts when I urinate.</t>
+  </si>
+  <si>
+    <t>Kidney Disease</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>I have a high fever and a bad cough.</t>
+  </si>
+  <si>
+    <t>Respiratory Infection</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>I feel extremely tired all the time.</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>1/21/2025</t>
+  </si>
+  <si>
+    <t>I feel dizzy and lightheaded.</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>12/30/2024</t>
+  </si>
+  <si>
+    <t>I struggle to breathe properly, especially during allergies.</t>
+  </si>
+  <si>
+    <t>Allergic Asthma</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>1/22/2025</t>
+  </si>
+  <si>
+    <t>I can't smell anything.</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>1/23/2025</t>
+  </si>
+  <si>
+    <t>My nose is constantly runny due to sinus issues.</t>
+  </si>
+  <si>
+    <t>Sinusitis</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>I feel lightheaded and out of breath often.</t>
+  </si>
+  <si>
+    <t>Obesity-Related Hypoxia</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>I have red, itchy patches on my body again.</t>
+  </si>
+  <si>
+    <t>Hives</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>My skin feels swollen and itchy.</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>I keep forgetting things lately.</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>My skin is so itchy, I can't stop scratching.</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>I keep experiencing muscle twitches.</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>2/27/2025</t>
+  </si>
+  <si>
+    <t>I feel tightness in my chest when breathing.</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>It’s painful to move around.</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>A022</t>
+  </si>
+  <si>
+    <t>My posture feels off and tilted.</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>I have throbbing headaches often.</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>My face and hands feel swollen.</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>I’m losing weight without trying.</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>12/18/2024</t>
+  </si>
+  <si>
+    <t>I can’t smell anything, and I’m wheezing.</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>1/13/2025</t>
+  </si>
+  <si>
+    <t>I feel tired even after resting.</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>12/22/2024</t>
+  </si>
+  <si>
+    <t>My asthma has been acting up, and I can’t stop coughing.</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>1/19/2025</t>
+  </si>
+  <si>
+    <t>It’s hard for me to move my muscles.</t>
+  </si>
+  <si>
+    <t>Muscle Dystrophy</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>I feel like the room is spinning.</t>
+  </si>
+  <si>
     <t>medical_history</t>
   </si>
   <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>['Hypertension']</t>
-  </si>
-  <si>
-    <t>Speech Impairment</t>
-  </si>
-  <si>
-    <t>ACE inhibitors</t>
-  </si>
-  <si>
-    <t>['Mild Stroke']</t>
-  </si>
-  <si>
-    <t>['Asthma']</t>
-  </si>
-  <si>
-    <t>Shortness of Breathe</t>
-  </si>
-  <si>
-    <t>mucolytics</t>
-  </si>
-  <si>
-    <t>['Bronchiectasis']</t>
-  </si>
-  <si>
-    <t>['Allergies']</t>
-  </si>
-  <si>
-    <t>Skin Rash</t>
-  </si>
-  <si>
-    <t>anti-inflammatory cream</t>
-  </si>
-  <si>
-    <t>['Hives']</t>
-  </si>
-  <si>
-    <t>['None']</t>
-  </si>
-  <si>
-    <t>Coughing</t>
-  </si>
-  <si>
-    <t>throat lozenges</t>
-  </si>
-  <si>
-    <t>Chest Pain</t>
-  </si>
-  <si>
-    <t>anti-inflammatory inhalers.</t>
-  </si>
-  <si>
-    <t>['Gerd']</t>
-  </si>
-  <si>
-    <t>Runny Nose</t>
-  </si>
-  <si>
-    <t>saline nasal spray</t>
-  </si>
-  <si>
-    <t>Painful Excretion</t>
-  </si>
-  <si>
-    <t>diuretics</t>
-  </si>
-  <si>
-    <t>['Kidney Disease']</t>
-  </si>
-  <si>
-    <t>antipyretics</t>
-  </si>
-  <si>
-    <t>['High Fever']</t>
-  </si>
-  <si>
-    <t>['Diabetes']</t>
-  </si>
-  <si>
-    <t>Fatigue</t>
-  </si>
-  <si>
-    <t>Insulin</t>
-  </si>
-  <si>
-    <t>['Pancreatitis']</t>
-  </si>
-  <si>
-    <t>['Heart Condition']</t>
-  </si>
-  <si>
-    <t>Lightheadedness</t>
-  </si>
-  <si>
-    <t>anti-arrhythmics</t>
-  </si>
-  <si>
-    <t>['Arrhythmias']</t>
-  </si>
-  <si>
-    <t>Antihistamines</t>
-  </si>
-  <si>
-    <t>Loss of Smell</t>
-  </si>
-  <si>
-    <t>nasal corticosteroids</t>
-  </si>
-  <si>
-    <t>['Hay Fever']</t>
-  </si>
-  <si>
-    <t>Nasal decongestants</t>
-  </si>
-  <si>
-    <t>['Sinusitis']</t>
-  </si>
-  <si>
-    <t>Diziness</t>
-  </si>
-  <si>
-    <t>Bronchodilators</t>
-  </si>
-  <si>
-    <t>['Obesity']</t>
-  </si>
-  <si>
-    <t>Swelling</t>
-  </si>
-  <si>
-    <t>Topical corticosteroids</t>
-  </si>
-  <si>
-    <t>['Eczema']</t>
-  </si>
-  <si>
-    <t>Memory Problems</t>
-  </si>
-  <si>
-    <t>Calcium channel blockers</t>
-  </si>
-  <si>
-    <t>['Bradycardia']</t>
-  </si>
-  <si>
-    <t>Itchiness</t>
-  </si>
-  <si>
-    <t>Oral antihistamines</t>
-  </si>
-  <si>
-    <t>['Goiter']</t>
-  </si>
-  <si>
-    <t>Twitching</t>
-  </si>
-  <si>
-    <t>methimazole</t>
-  </si>
-  <si>
-    <t>['Hyperthyroidism']</t>
-  </si>
-  <si>
-    <t>inhaled corticosteroids</t>
-  </si>
-  <si>
-    <t>['Broken Bones']</t>
-  </si>
-  <si>
-    <t>Limited Mobility</t>
-  </si>
-  <si>
-    <t>Calcium and Vitamin D supplements</t>
-  </si>
-  <si>
-    <t>['Osteoporosis']</t>
-  </si>
-  <si>
-    <t>['Osterporosis']</t>
-  </si>
-  <si>
-    <t>Titled Posture</t>
-  </si>
-  <si>
-    <t>['Scoliosis']</t>
-  </si>
-  <si>
-    <t>Headaches</t>
-  </si>
-  <si>
-    <t>Weight Loss</t>
-  </si>
-  <si>
-    <t>Insulin therapy</t>
-  </si>
-  <si>
-    <t>bronchodilators</t>
-  </si>
-  <si>
-    <t>['COVID-19']</t>
-  </si>
-  <si>
-    <t>Beta-blockers</t>
-  </si>
-  <si>
-    <t>Short-acting bronchodilators</t>
-  </si>
-  <si>
-    <t>['Tetanus']</t>
-  </si>
-  <si>
-    <t>Muscle relaxants</t>
-  </si>
-  <si>
-    <t>['Muscle Dystrophy']</t>
+    <t>Mild Stroke</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Gerd</t>
+  </si>
+  <si>
+    <t>High Fever</t>
+  </si>
+  <si>
+    <t>Pancreatitis</t>
+  </si>
+  <si>
+    <t>Heart Condition</t>
+  </si>
+  <si>
+    <t>Arrhythmias</t>
+  </si>
+  <si>
+    <t>Hay Fever</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Eczema</t>
+  </si>
+  <si>
+    <t>Goiter</t>
+  </si>
+  <si>
+    <t>Broken Bones</t>
+  </si>
+  <si>
+    <t>Osterporosis</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
   </si>
 </sst>
 </file>
@@ -869,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -888,6 +1124,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3854D23-A112-494F-952C-992884DBF08A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,733 +2220,1524 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F1C908-4D2E-4388-8C79-724323220336}">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD9836B-50CE-4D7C-A943-321E3BAFD15A}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+    <col min="7" max="7" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45963</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45577</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45871</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45992</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45690</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45901</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45902</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45303</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45810</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45303</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED23972-4E59-45E5-AFF8-998F4D08C6D6}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>245</v>
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D804B66B-457A-4E0C-A9A9-ED37EFEE6E0D}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
